--- a/shoeStoreAPI/src/main/resources/reports/BaoCaoHangTon.xlsx
+++ b/shoeStoreAPI/src/main/resources/reports/BaoCaoHangTon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\project\shoeStoreAPI\src\main\resources\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A516EEA-1D35-4487-A077-8C40CF817BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C102C-42FD-4641-B431-C13E8592C074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDC5D874-1076-48E9-831B-D296538AC966}"/>
   </bookViews>
@@ -35,15 +35,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>BÁO CÁO HÀNG TỒN KHO [time]</t>
+  </si>
+  <si>
+    <t>Màu sắc</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Kích cỡ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng hiện có </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +102,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +463,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F2D22-555C-419E-9F04-D29A7A8D4661}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>